--- a/tools/IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/IP-Planning-Hardware-Requirements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ghichep-pfSense\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ghichep-pritunl\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="47">
   <si>
     <t>eth0</t>
   </si>
@@ -134,15 +134,6 @@
     <t>client</t>
   </si>
   <si>
-    <t>172.16.69.177</t>
-  </si>
-  <si>
-    <t>40.40.40.2</t>
-  </si>
-  <si>
-    <t>40.40.40.3</t>
-  </si>
-  <si>
     <t>172.16.69.40</t>
   </si>
   <si>
@@ -165,6 +156,24 @@
   </si>
   <si>
     <t>Server Target</t>
+  </si>
+  <si>
+    <t>Pritunl</t>
+  </si>
+  <si>
+    <t>192.168.10.202</t>
+  </si>
+  <si>
+    <t>10.10.50.3</t>
+  </si>
+  <si>
+    <t>10.10.50.4</t>
+  </si>
+  <si>
+    <t>192.168.10.3</t>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
   </si>
 </sst>
 </file>
@@ -754,7 +763,7 @@
   <dimension ref="B2:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -834,19 +843,19 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>11</v>
@@ -879,7 +888,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>3</v>
@@ -896,13 +905,13 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>3</v>
@@ -937,19 +946,19 @@
     </row>
     <row r="7" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>11</v>
@@ -1082,13 +1091,13 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>3</v>
@@ -1127,7 +1136,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>3</v>
@@ -1144,13 +1153,13 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>3</v>
@@ -1185,13 +1194,13 @@
     </row>
     <row r="7" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>3</v>
@@ -1425,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>11</v>
@@ -1516,14 +1525,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:N2"/>
     <mergeCell ref="B4:B6"/>
@@ -1534,6 +1535,14 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="N4:N6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
